--- a/resources/statistics/db_seeder_cmd_improvement_company_3.0.5_win10.xlsx
+++ b/resources/statistics/db_seeder_cmd_improvement_company_3.0.5_win10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\db_seeder\resources\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDC43C1-F72B-45FF-9A09-D039A5B0A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B094974F-19EE-4EE1-9AC9-394C90EDA80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db_seeder_cmd_improvement_compa" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -470,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
     <sortCondition ref="C2:C31"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>